--- a/ampl-data-input-excel/26-SA-Kevin/26-SA-Kevin.xlsx
+++ b/ampl-data-input-excel/26-SA-Kevin/26-SA-Kevin.xlsx
@@ -5,27 +5,28 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="experts" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="tasks" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="links" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="xbday" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="xbsum" sheetId="5" state="visible" r:id="rId7"/>
-    <sheet name="ubday" sheetId="6" state="visible" r:id="rId8"/>
-    <sheet name="ubsum" sheetId="7" state="visible" r:id="rId9"/>
-    <sheet name="expert bounds" sheetId="8" state="visible" r:id="rId10"/>
-    <sheet name="invoicing periods" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="invoicing periods bounds" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="public holidays" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="misc" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="himg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="timg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="simg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="gimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="wimg" sheetId="17" state="visible" r:id="rId19"/>
-    <sheet name="bimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="eimg" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="experts" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="tasks" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="links" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="xbday" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="xbsum" sheetId="6" state="visible" r:id="rId8"/>
+    <sheet name="ubday" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="ubsum" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="expert bounds" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="invoicing periods" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="invoicing periods bounds" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="public holidays" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="misc" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="himg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="timg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="simg" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="gimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="wimg" sheetId="18" state="visible" r:id="rId20"/>
+    <sheet name="bimg" sheetId="19" state="visible" r:id="rId21"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -36,13 +37,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +51,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Has Expert any task?</t>
+          <t xml:space="preserve">Are dates OK?</t>
         </r>
       </text>
     </comment>
@@ -58,7 +59,7 @@
 </comments>
 </file>
 
-<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
@@ -92,7 +93,7 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
@@ -115,6 +116,28 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author>Unknown Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Has Expert any task?</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
@@ -160,7 +183,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
@@ -194,7 +217,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author>Unknown Author</author>
@@ -240,30 +263,23 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author>Unknown Author</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Are dates OK?</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="84">
+  <si>
+    <t xml:space="preserve">Experts per day stacked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dpi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bar:alpha</t>
+  </si>
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -415,22 +431,10 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">Width</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Height</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dpi</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
     <t xml:space="preserve">Bar:hatch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bar:alpha</t>
   </si>
   <si>
     <t xml:space="preserve">Is Start OK?</t>
@@ -556,6 +560,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -574,13 +585,6 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -591,8 +595,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD8CE"/>
-        <bgColor rgb="FFFFD7D7"/>
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
@@ -603,14 +607,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFFFD7D7"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF008000"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
@@ -660,7 +664,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -669,47 +673,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -737,27 +745,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -781,16 +781,12 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -980,44 +976,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="b">
-        <f aca="false">AND(C2:C954)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="n">
-        <f aca="false">COUNTIF(links!$A$1:$A$524, A2) &gt; 0</f>
-        <v>1</v>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +1027,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1037,1146 +1035,353 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="29" width="13.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="5" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="13" t="b">
+        <f aca="false">AND(D2:D908)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="25" t="n">
+        <v>45637</v>
+      </c>
+      <c r="C2" s="25" t="n">
+        <v>45672</v>
+      </c>
+      <c r="D2" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="25" t="n">
+        <v>45673</v>
+      </c>
+      <c r="C3" s="25" t="n">
+        <v>45701</v>
+      </c>
+      <c r="D3" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="27" t="n">
+        <v>45702</v>
+      </c>
+      <c r="C4" s="27" t="n">
+        <v>45732</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="27" t="n">
+        <v>45733</v>
+      </c>
+      <c r="C5" s="27" t="n">
+        <v>45761</v>
+      </c>
+      <c r="D5" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="27" t="n">
+        <v>45762</v>
+      </c>
+      <c r="C6" s="27" t="n">
+        <v>45795</v>
+      </c>
+      <c r="D6" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="27" t="n">
+        <v>45796</v>
+      </c>
+      <c r="C7" s="27" t="n">
+        <v>45826</v>
+      </c>
+      <c r="D7" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="14" t="n">
+        <v>45827</v>
+      </c>
+      <c r="C8" s="27" t="n">
+        <v>45855</v>
+      </c>
+      <c r="D8" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="4" t="b">
-        <f aca="false">AND(E2:E832)</f>
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="b">
-        <f aca="false">AND(F2:F832)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E2" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A2) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E3" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A3) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E4" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A4) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E5" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A5) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E6" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A6) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E7" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A7) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E8" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A8) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B8) &gt; 0</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E9" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A9) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F9" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B9) &gt; 0</f>
+      <c r="B9" s="27" t="n">
+        <v>45856</v>
+      </c>
+      <c r="C9" s="27" t="n">
+        <v>45886</v>
+      </c>
+      <c r="D9" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E10" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A10) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B10) &gt; 0</f>
+      <c r="A10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>45887</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>45915</v>
+      </c>
+      <c r="D10" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E11" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A11) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F11" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B11) &gt; 0</f>
+      <c r="A11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="14" t="n">
+        <v>45916</v>
+      </c>
+      <c r="C11" s="14" t="n">
+        <v>45945</v>
+      </c>
+      <c r="D11" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E12" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A12) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F12" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B12) &gt; 0</f>
+      <c r="A12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="14" t="n">
+        <v>45946</v>
+      </c>
+      <c r="C12" s="14" t="n">
+        <v>45973</v>
+      </c>
+      <c r="D12" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="E13" s="2" t="b">
-        <f aca="false">COUNTIF(experts!$A$2:$A$921, A13) &gt; 0</f>
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="b">
-        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B13) &gt; 0</f>
+      <c r="A13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="14" t="n">
+        <v>45974</v>
+      </c>
+      <c r="C13" s="14" t="n">
+        <v>46002</v>
+      </c>
+      <c r="D13" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="25"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="25"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="25"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="25"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="25"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="25"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="25"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="25"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="25"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="25"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="25"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="25"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="25"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="25"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="25"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="25"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="25"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="25"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="25"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="25"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="25"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="25"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="27"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="27"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="25"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="25"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="27"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="27"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="27"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="27"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="27"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="27"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="27"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="27"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="27"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="27"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="25"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="25"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="27"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="27"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="27"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="27"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="27"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="27"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="27"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="27"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="27"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="27"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="25"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="25"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="27"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="27"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="27"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="27"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="27"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="27"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="27"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="27"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="27"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="27"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="25"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="25"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="27"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="27"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="27"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="27"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="27"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="27"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="27"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="27"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="27"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="27"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="25"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="25"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="27"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="27"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="27"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="27"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="27"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="27"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="27"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="27"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="27"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="27"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="25"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="25"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="27"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="27"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="27"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="27"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="27"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="27"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
-    </row>
-    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="27"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
-    </row>
-    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="27"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="1"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="27"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="1"/>
-    </row>
-    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="27"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="25"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="1"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="25"/>
-      <c r="C111" s="1"/>
-      <c r="D111" s="1"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="27"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-    </row>
-    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="27"/>
-      <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="27"/>
-      <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="27"/>
-      <c r="C115" s="1"/>
-      <c r="D115" s="1"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="27"/>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-    </row>
-    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="27"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="27"/>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="27"/>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="27"/>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="27"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="25"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="25"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="1"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="27"/>
-      <c r="C124" s="1"/>
-      <c r="D124" s="1"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="27"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="1"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="27"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="1"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="27"/>
-      <c r="C127" s="1"/>
-      <c r="D127" s="1"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="27"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="1"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="27"/>
-      <c r="C129" s="1"/>
-      <c r="D129" s="1"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="27"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="1"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="27"/>
-      <c r="C131" s="1"/>
-      <c r="D131" s="1"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="27"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="27"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="25"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="25"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="27"/>
-      <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="27"/>
-      <c r="C137" s="1"/>
-      <c r="D137" s="1"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="27"/>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1"/>
-    </row>
-    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="27"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="1"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="27"/>
-      <c r="C140" s="1"/>
-      <c r="D140" s="1"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="27"/>
-      <c r="C141" s="1"/>
-      <c r="D141" s="1"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="27"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="1"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="27"/>
-      <c r="C143" s="1"/>
-      <c r="D143" s="1"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="27"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="1"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="27"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="1"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="25"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="25"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="27"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="27"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="27"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="27"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="27"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="27"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="27"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="27"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="27"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="27"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="25"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="25"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="27"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="27"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="27"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="27"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="27"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="27"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="27"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="27"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="27"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="27"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="25"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="25"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="27"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="27"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="27"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="27"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="27"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="27"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="27"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="27"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="27"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="27"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2195,179 +1400,1146 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="13.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="5" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="7" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="b">
+        <f aca="false">AND(E2:E832)</f>
+        <v>1</v>
+      </c>
+      <c r="F1" s="7" t="b">
+        <f aca="false">AND(F2:F832)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E2" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B2) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E3" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A3) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B3) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A4) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B4) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A5) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B5) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E6" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A6) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F6" s="5" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B6) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E7" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A7) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B7) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E8" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A8) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="5" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B8) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A9) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B9) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="12" t="b">
-        <f aca="false">AND(B2:B905)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(A2), misc!$A$2&lt;=A2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="n">
-        <v>45767</v>
-      </c>
-      <c r="B3" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(A3), misc!$A$2&lt;=A3)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="n">
-        <v>45778</v>
-      </c>
-      <c r="B4" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(A4), misc!$A$2&lt;=A4)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13"/>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E10" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A10) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F10" s="5" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B10) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13"/>
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E11" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A11) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B11) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13"/>
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E12" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A12) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B12) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13"/>
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="E13" s="5" t="b">
+        <f aca="false">COUNTIF(experts!$A$2:$A$921, A13) &gt; 0</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="b">
+        <f aca="false">COUNTIF('invoicing periods'!$A$2:$A$1000, B13) &gt; 0</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="13"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="13"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="13"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="13"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="13"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="13"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="13"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="13"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="13"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="13"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="13"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="13"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="13"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="13"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="13"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="13"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="13"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="26"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="26"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="26"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="24"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="24"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="26"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="26"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="26"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="26"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="26"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="26"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="26"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="26"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="26"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="26"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="24"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="24"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="26"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="26"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="26"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="26"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="26"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="26"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="26"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="26"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="26"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="26"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="24"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="24"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="26"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="26"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="26"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="26"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="26"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="26"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="26"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="26"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="26"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="26"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="24"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="24"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="26"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="26"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="26"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="26"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="26"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="26"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="26"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="26"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="26"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="26"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="24"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="24"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="26"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="26"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="26"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="26"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="26"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="26"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="26"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="26"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="26"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="26"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="24"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="24"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="26"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="26"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="26"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="26"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="26"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="26"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="26"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="26"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="26"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="26"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="24"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="24"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="26"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="26"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="26"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="26"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="26"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="26"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="26"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="26"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="26"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="26"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="24"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="24"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="26"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="26"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="26"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="26"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="26"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="26"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="26"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="26"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="26"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="26"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="24"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="24"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="26"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="26"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="26"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="26"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="26"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+    </row>
+    <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="26"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="26"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="26"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+    </row>
+    <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="26"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="26"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+    </row>
+    <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="24"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+    </row>
+    <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="24"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+    </row>
+    <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="26"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
+    <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="26"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
+    <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="26"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="26"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
+    <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="26"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="26"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="26"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
+    <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="26"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="26"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="26"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="24"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="24"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="26"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+    </row>
+    <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="26"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+    </row>
+    <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="26"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+    </row>
+    <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="26"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="26"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+    </row>
+    <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="26"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="26"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="26"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="26"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="26"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2386,6 +2558,197 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="13" t="b">
+        <f aca="false">AND(B2:B905)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B2" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(A2), misc!$A$2&lt;=A2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B3" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(A3), misc!$A$2&lt;=A3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B4" s="5" t="b">
+        <f aca="false">AND(ISNUMBER(A4), misc!$A$2&lt;=A4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2394,38 +2757,38 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="15.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="15.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>48</v>
+      <c r="A1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="n">
+      <c r="A2" s="14" t="n">
         <v>45656</v>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="31" t="n">
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="30" t="n">
         <f aca="false">MAX(MAX('invoicing periods'!C2:C900),MAX(tasks!C2:C604))</f>
         <v>46391</v>
       </c>
@@ -2441,7 +2804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2460,72 +2823,72 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>57</v>
       </c>
+      <c r="K1" s="29" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="14" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="23" t="n">
+      <c r="F2" s="22" t="n">
         <f aca="false">misc!D2</f>
         <v>46391</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="H2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="33" t="b">
+      <c r="J2" s="31" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="33" t="b">
+      <c r="K2" s="31" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -2541,7 +2904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2559,72 +2922,72 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="J1" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="30" t="s">
+      <c r="J1" s="29" t="s">
         <v>57</v>
       </c>
+      <c r="K1" s="29" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="14" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="23" t="n">
+      <c r="F2" s="22" t="n">
         <f aca="false">misc!D2</f>
         <v>46391</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I2" s="6" t="n">
+      <c r="H2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>0.3</v>
       </c>
-      <c r="J2" s="33" t="b">
+      <c r="J2" s="31" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="33" t="b">
+      <c r="K2" s="31" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
@@ -2640,7 +3003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2658,137 +3021,66 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>57</v>
       </c>
+      <c r="I1" s="29" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="14" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
-      <c r="F2" s="23" t="n">
+      <c r="F2" s="22" t="n">
         <f aca="false">misc!D2</f>
         <v>46391</v>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="H2" s="33" t="b">
+      <c r="H2" s="31" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="I2" s="33" t="b">
+      <c r="I2" s="31" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M21" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>0.6</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2809,56 +3101,56 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>4</v>
+      <c r="F2" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -2873,6 +3165,77 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2892,63 +3255,63 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="n">
+      <c r="C2" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="n">
+      <c r="D2" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="6" t="n">
+      <c r="E2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I2" s="6" t="n">
+      <c r="H2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="J2" s="6" t="n">
+      <c r="J2" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2968,6 +3331,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="5" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="1" width="11.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="7" t="b">
+        <f aca="false">AND(C2:C954)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <f aca="false">COUNTIF(links!$A$1:$A$524, A2) &gt; 0</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2977,882 +3397,882 @@
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="10" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="10" style="5" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="b">
+      <c r="E1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="13" t="b">
         <f aca="false">AND(J2:J607)</f>
         <v>1</v>
       </c>
-      <c r="K1" s="12" t="b">
+      <c r="K1" s="13" t="b">
         <f aca="false">AND(K2:K612)</f>
         <v>1</v>
       </c>
-      <c r="L1" s="12" t="b">
+      <c r="L1" s="13" t="b">
         <f aca="false">AND(L2:L612)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="B2" s="14" t="n">
         <v>45684</v>
       </c>
-      <c r="C2" s="13" t="n">
+      <c r="C2" s="14" t="n">
         <f aca="false">B2+5</f>
         <v>45689</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="E2" s="14" t="n">
+      <c r="E2" s="15" t="n">
         <f aca="false">C2 - B2 +1</f>
         <v>6</v>
       </c>
-      <c r="F2" s="14" t="n">
+      <c r="F2" s="15" t="n">
         <f aca="false">NETWORKDAYS(B2, C2, 'public holidays'!A$2:A$500)</f>
         <v>5</v>
       </c>
-      <c r="G2" s="15" t="n">
+      <c r="G2" s="16" t="n">
         <f aca="false">D2/F2</f>
         <v>2.4</v>
       </c>
-      <c r="H2" s="16" t="n">
+      <c r="H2" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G2, 0.25)</f>
         <v>2.25</v>
       </c>
-      <c r="I2" s="16" t="n">
+      <c r="I2" s="17" t="n">
         <f aca="false">H2 + 0.25</f>
         <v>2.5</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="8" t="n">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="b">
+      <c r="K2" s="5" t="b">
         <f aca="false">C2&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L2" s="2" t="n">
+      <c r="L2" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="B3" s="14" t="n">
         <f aca="false">C2+1</f>
         <v>45690</v>
       </c>
-      <c r="C3" s="13" t="n">
+      <c r="C3" s="14" t="n">
         <f aca="false">B3+45</f>
         <v>45735</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="E3" s="14" t="n">
+      <c r="E3" s="15" t="n">
         <f aca="false">C3 - B3 +1</f>
         <v>46</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="15" t="n">
         <f aca="false">NETWORKDAYS(B3, C3, 'public holidays'!A$2:A$500)</f>
         <v>33</v>
       </c>
-      <c r="G3" s="15" t="n">
+      <c r="G3" s="16" t="n">
         <f aca="false">D3/F3</f>
         <v>0.727272727272727</v>
       </c>
-      <c r="H3" s="16" t="n">
+      <c r="H3" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G3, 0.25)</f>
         <v>0.5</v>
       </c>
-      <c r="I3" s="16" t="n">
+      <c r="I3" s="17" t="n">
         <f aca="false">H3 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J3" s="2" t="n">
+      <c r="J3" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K3" s="5" t="b">
         <f aca="false">C3&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L3" s="2" t="n">
+      <c r="L3" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="B4" s="14" t="n">
         <f aca="false">C3+1</f>
         <v>45736</v>
       </c>
-      <c r="C4" s="13" t="n">
+      <c r="C4" s="14" t="n">
         <v>45748</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="15" t="n">
         <f aca="false">C4 - B4 +1</f>
         <v>13</v>
       </c>
-      <c r="F4" s="14" t="n">
+      <c r="F4" s="15" t="n">
         <f aca="false">NETWORKDAYS(B4, C4, 'public holidays'!A$2:A$500)</f>
         <v>9</v>
       </c>
-      <c r="G4" s="15" t="n">
+      <c r="G4" s="16" t="n">
         <f aca="false">D4/F4</f>
         <v>0.888888888888889</v>
       </c>
-      <c r="H4" s="16" t="n">
+      <c r="H4" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G4, 0.25)</f>
         <v>0.75</v>
       </c>
-      <c r="I4" s="16" t="n">
+      <c r="I4" s="17" t="n">
         <f aca="false">H4 + 0.25</f>
         <v>1</v>
       </c>
-      <c r="J4" s="2" t="n">
+      <c r="J4" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="n">
+      <c r="K4" s="5" t="b">
         <f aca="false">C4&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L4" s="2" t="n">
+      <c r="L4" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="B5" s="14" t="n">
         <v>45662</v>
       </c>
-      <c r="C5" s="13" t="n">
+      <c r="C5" s="14" t="n">
         <f aca="false">B5+10</f>
         <v>45672</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="15" t="n">
         <f aca="false">C5 - B5 +1</f>
         <v>11</v>
       </c>
-      <c r="F5" s="14" t="n">
+      <c r="F5" s="15" t="n">
         <f aca="false">NETWORKDAYS(B5, C5, 'public holidays'!A$2:A$500)</f>
         <v>8</v>
       </c>
-      <c r="G5" s="15" t="n">
+      <c r="G5" s="16" t="n">
         <f aca="false">D5/F5</f>
         <v>3.75</v>
       </c>
-      <c r="H5" s="16" t="n">
+      <c r="H5" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G5, 0.25)</f>
         <v>3.75</v>
       </c>
-      <c r="I5" s="16" t="n">
+      <c r="I5" s="17" t="n">
         <f aca="false">H5 + 0.25</f>
         <v>4</v>
       </c>
-      <c r="J5" s="2" t="n">
+      <c r="J5" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="5" t="b">
         <f aca="false">C5&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14" t="n">
         <f aca="false">C5+1</f>
         <v>45673</v>
       </c>
-      <c r="C6" s="13" t="n">
+      <c r="C6" s="14" t="n">
         <f aca="false">B6+180</f>
         <v>45853</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E6" s="14" t="n">
+      <c r="E6" s="15" t="n">
         <f aca="false">C6 - B6 +1</f>
         <v>181</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="15" t="n">
         <f aca="false">NETWORKDAYS(B6, C6, 'public holidays'!A$2:A$500)</f>
         <v>128</v>
       </c>
-      <c r="G6" s="15" t="n">
+      <c r="G6" s="16" t="n">
         <f aca="false">D6/F6</f>
         <v>0.46875</v>
       </c>
-      <c r="H6" s="16" t="n">
+      <c r="H6" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G6, 0.25)</f>
         <v>0.25</v>
       </c>
-      <c r="I6" s="16" t="n">
+      <c r="I6" s="17" t="n">
         <f aca="false">H6 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J6" s="2" t="n">
+      <c r="J6" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="5" t="b">
         <f aca="false">C6&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L6" s="2" t="n">
+      <c r="L6" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="B7" s="14" t="n">
         <f aca="false">C6+1</f>
         <v>45854</v>
       </c>
-      <c r="C7" s="13" t="n">
+      <c r="C7" s="14" t="n">
         <v>45873</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E7" s="14" t="n">
+      <c r="E7" s="15" t="n">
         <f aca="false">C7 - B7 +1</f>
         <v>20</v>
       </c>
-      <c r="F7" s="14" t="n">
+      <c r="F7" s="15" t="n">
         <f aca="false">NETWORKDAYS(B7, C7, 'public holidays'!A$2:A$500)</f>
         <v>14</v>
       </c>
-      <c r="G7" s="15" t="n">
+      <c r="G7" s="16" t="n">
         <f aca="false">D7/F7</f>
         <v>2.85714285714286</v>
       </c>
-      <c r="H7" s="16" t="n">
+      <c r="H7" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G7, 0.25)</f>
         <v>2.75</v>
       </c>
-      <c r="I7" s="16" t="n">
+      <c r="I7" s="17" t="n">
         <f aca="false">H7 + 0.25</f>
         <v>3</v>
       </c>
-      <c r="J7" s="2" t="n">
+      <c r="J7" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="5" t="b">
         <f aca="false">C7&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L7" s="2" t="n">
+      <c r="L7" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="B8" s="14" t="n">
         <v>45658</v>
       </c>
-      <c r="C8" s="13" t="n">
+      <c r="C8" s="14" t="n">
         <v>45678</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="E8" s="14" t="n">
+      <c r="E8" s="15" t="n">
         <f aca="false">C8 - B8 +1</f>
         <v>21</v>
       </c>
-      <c r="F8" s="14" t="n">
+      <c r="F8" s="15" t="n">
         <f aca="false">NETWORKDAYS(B8, C8, 'public holidays'!A$2:A$500)</f>
         <v>14</v>
       </c>
-      <c r="G8" s="15" t="n">
+      <c r="G8" s="16" t="n">
         <f aca="false">D8/F8</f>
         <v>1.07142857142857</v>
       </c>
-      <c r="H8" s="16" t="n">
+      <c r="H8" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G8, 0.25)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="16" t="n">
+      <c r="I8" s="17" t="n">
         <f aca="false">H8 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J8" s="2" t="n">
+      <c r="J8" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K8" s="2" t="n">
+      <c r="K8" s="5" t="b">
         <f aca="false">C8&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L8" s="2" t="n">
+      <c r="L8" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="B9" s="14" t="n">
         <v>45679</v>
       </c>
-      <c r="C9" s="13" t="n">
+      <c r="C9" s="14" t="n">
         <v>45691</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E9" s="14" t="n">
+      <c r="E9" s="15" t="n">
         <f aca="false">C9 - B9 +1</f>
         <v>13</v>
       </c>
-      <c r="F9" s="14" t="n">
+      <c r="F9" s="15" t="n">
         <f aca="false">NETWORKDAYS(B9, C9, 'public holidays'!A$2:A$500)</f>
         <v>9</v>
       </c>
-      <c r="G9" s="15" t="n">
+      <c r="G9" s="16" t="n">
         <f aca="false">D9/F9</f>
         <v>0.555555555555556</v>
       </c>
-      <c r="H9" s="16" t="n">
+      <c r="H9" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G9, 0.25)</f>
         <v>0.5</v>
       </c>
-      <c r="I9" s="16" t="n">
+      <c r="I9" s="17" t="n">
         <f aca="false">H9 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J9" s="2" t="n">
+      <c r="J9" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K9" s="2" t="n">
+      <c r="K9" s="5" t="b">
         <f aca="false">C9&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L9" s="2" t="n">
+      <c r="L9" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="13" t="n">
+        <v>25</v>
+      </c>
+      <c r="B10" s="14" t="n">
         <v>45809</v>
       </c>
-      <c r="C10" s="13" t="n">
+      <c r="C10" s="14" t="n">
         <v>45834</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="15" t="n">
         <f aca="false">C10 - B10 +1</f>
         <v>26</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="15" t="n">
         <f aca="false">NETWORKDAYS(B10, C10, 'public holidays'!A$2:A$500)</f>
         <v>19</v>
       </c>
-      <c r="G10" s="15" t="n">
+      <c r="G10" s="16" t="n">
         <f aca="false">D10/F10</f>
         <v>2.10526315789474</v>
       </c>
-      <c r="H10" s="16" t="n">
+      <c r="H10" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G10, 0.25)</f>
         <v>2</v>
       </c>
-      <c r="I10" s="16" t="n">
+      <c r="I10" s="17" t="n">
         <f aca="false">H10 + 0.25</f>
         <v>2.25</v>
       </c>
-      <c r="J10" s="2" t="n">
+      <c r="J10" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K10" s="2" t="n">
+      <c r="K10" s="5" t="b">
         <f aca="false">C10&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L10" s="2" t="n">
+      <c r="L10" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="B11" s="14" t="n">
         <v>45835</v>
       </c>
-      <c r="C11" s="13" t="n">
+      <c r="C11" s="14" t="n">
         <v>46335</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E11" s="14" t="n">
+      <c r="E11" s="15" t="n">
         <f aca="false">C11 - B11 +1</f>
         <v>501</v>
       </c>
-      <c r="F11" s="14" t="n">
+      <c r="F11" s="15" t="n">
         <f aca="false">NETWORKDAYS(B11, C11, 'public holidays'!A$2:A$500)</f>
         <v>357</v>
       </c>
-      <c r="G11" s="15" t="n">
+      <c r="G11" s="16" t="n">
         <f aca="false">D11/F11</f>
         <v>0.0560224089635854</v>
       </c>
-      <c r="H11" s="16" t="n">
+      <c r="H11" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G11, 0.25)</f>
         <v>0</v>
       </c>
-      <c r="I11" s="16" t="n">
+      <c r="I11" s="17" t="n">
         <f aca="false">H11 + 0.25</f>
         <v>0.25</v>
       </c>
-      <c r="J11" s="2" t="n">
+      <c r="J11" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K11" s="2" t="n">
+      <c r="K11" s="5" t="b">
         <f aca="false">C11&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L11" s="2" t="n">
+      <c r="L11" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="B12" s="14" t="n">
         <v>46336</v>
       </c>
-      <c r="C12" s="13" t="n">
+      <c r="C12" s="14" t="n">
         <v>46391</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E12" s="14" t="n">
+      <c r="E12" s="15" t="n">
         <f aca="false">C12 - B12 +1</f>
         <v>56</v>
       </c>
-      <c r="F12" s="14" t="n">
+      <c r="F12" s="15" t="n">
         <f aca="false">NETWORKDAYS(B12, C12, 'public holidays'!A$2:A$500)</f>
         <v>40</v>
       </c>
-      <c r="G12" s="15" t="n">
+      <c r="G12" s="16" t="n">
         <f aca="false">D12/F12</f>
         <v>0.5</v>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G12, 0.25)</f>
         <v>0.5</v>
       </c>
-      <c r="I12" s="16" t="n">
+      <c r="I12" s="17" t="n">
         <f aca="false">H12 + 0.25</f>
         <v>0.75</v>
       </c>
-      <c r="J12" s="2" t="n">
+      <c r="J12" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K12" s="2" t="n">
+      <c r="K12" s="5" t="b">
         <f aca="false">C12&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L12" s="2" t="n">
+      <c r="L12" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="B13" s="14" t="n">
         <v>45778</v>
       </c>
-      <c r="C13" s="13" t="n">
+      <c r="C13" s="14" t="n">
         <v>45793</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="E13" s="14" t="n">
+      <c r="E13" s="15" t="n">
         <f aca="false">C13 - B13 +1</f>
         <v>16</v>
       </c>
-      <c r="F13" s="14" t="n">
+      <c r="F13" s="15" t="n">
         <f aca="false">NETWORKDAYS(B13, C13, 'public holidays'!A$2:A$500)</f>
         <v>11</v>
       </c>
-      <c r="G13" s="15" t="n">
+      <c r="G13" s="16" t="n">
         <f aca="false">D13/F13</f>
         <v>5.45454545454545</v>
       </c>
-      <c r="H13" s="16" t="n">
+      <c r="H13" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G13, 0.25)</f>
         <v>5.25</v>
       </c>
-      <c r="I13" s="16" t="n">
+      <c r="I13" s="17" t="n">
         <f aca="false">H13 + 0.25</f>
         <v>5.5</v>
       </c>
-      <c r="J13" s="2" t="n">
+      <c r="J13" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K13" s="2" t="n">
+      <c r="K13" s="5" t="b">
         <f aca="false">C13&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L13" s="2" t="n">
+      <c r="L13" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="B14" s="14" t="n">
         <v>45794</v>
       </c>
-      <c r="C14" s="13" t="n">
+      <c r="C14" s="14" t="n">
         <v>46064</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="E14" s="14" t="n">
+      <c r="E14" s="15" t="n">
         <f aca="false">C14 - B14 +1</f>
         <v>271</v>
       </c>
-      <c r="F14" s="14" t="n">
+      <c r="F14" s="15" t="n">
         <f aca="false">NETWORKDAYS(B14, C14, 'public holidays'!A$2:A$500)</f>
         <v>193</v>
       </c>
-      <c r="G14" s="15" t="n">
+      <c r="G14" s="16" t="n">
         <f aca="false">D14/F14</f>
         <v>0.259067357512953</v>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G14, 0.25)</f>
         <v>0.25</v>
       </c>
-      <c r="I14" s="16" t="n">
+      <c r="I14" s="17" t="n">
         <f aca="false">H14 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="J14" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="5" t="b">
         <f aca="false">C14&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L14" s="2" t="n">
+      <c r="L14" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B14), ISNUMBER(C14), B14&lt;=C14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="B15" s="14" t="n">
         <v>46065</v>
       </c>
-      <c r="C15" s="13" t="n">
+      <c r="C15" s="14" t="n">
         <v>46083</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E15" s="14" t="n">
+      <c r="E15" s="15" t="n">
         <f aca="false">C15 - B15 +1</f>
         <v>19</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="15" t="n">
         <f aca="false">NETWORKDAYS(B15, C15, 'public holidays'!A$2:A$500)</f>
         <v>13</v>
       </c>
-      <c r="G15" s="15" t="n">
+      <c r="G15" s="16" t="n">
         <f aca="false">D15/F15</f>
         <v>1.53846153846154</v>
       </c>
-      <c r="H15" s="16" t="n">
+      <c r="H15" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G15, 0.25)</f>
         <v>1.5</v>
       </c>
-      <c r="I15" s="16" t="n">
+      <c r="I15" s="17" t="n">
         <f aca="false">H15 + 0.25</f>
         <v>1.75</v>
       </c>
-      <c r="J15" s="2" t="n">
+      <c r="J15" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K15" s="2" t="n">
+      <c r="K15" s="5" t="b">
         <f aca="false">C15&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L15" s="2" t="n">
+      <c r="L15" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B15), ISNUMBER(C15), B15&lt;=C15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="B16" s="14" t="n">
         <v>45853</v>
       </c>
-      <c r="C16" s="13" t="n">
+      <c r="C16" s="14" t="n">
         <v>45878</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E16" s="14" t="n">
+      <c r="E16" s="15" t="n">
         <f aca="false">C16 - B16 +1</f>
         <v>26</v>
       </c>
-      <c r="F16" s="14" t="n">
+      <c r="F16" s="15" t="n">
         <f aca="false">NETWORKDAYS(B16, C16, 'public holidays'!A$2:A$500)</f>
         <v>19</v>
       </c>
-      <c r="G16" s="15" t="n">
+      <c r="G16" s="16" t="n">
         <f aca="false">D16/F16</f>
         <v>1.05263157894737</v>
       </c>
-      <c r="H16" s="16" t="n">
+      <c r="H16" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G16, 0.25)</f>
         <v>1</v>
       </c>
-      <c r="I16" s="16" t="n">
+      <c r="I16" s="17" t="n">
         <f aca="false">H16 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J16" s="2" t="n">
+      <c r="J16" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A16) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K16" s="2" t="n">
+      <c r="K16" s="5" t="b">
         <f aca="false">C16&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L16" s="2" t="n">
+      <c r="L16" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B16), ISNUMBER(C16), B16&lt;=C16)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="13" t="n">
+        <v>32</v>
+      </c>
+      <c r="B17" s="14" t="n">
         <v>45879</v>
       </c>
-      <c r="C17" s="13" t="n">
+      <c r="C17" s="14" t="n">
         <v>46029</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="E17" s="14" t="n">
+      <c r="E17" s="15" t="n">
         <f aca="false">C17 - B17 +1</f>
         <v>151</v>
       </c>
-      <c r="F17" s="14" t="n">
+      <c r="F17" s="15" t="n">
         <f aca="false">NETWORKDAYS(B17, C17, 'public holidays'!A$2:A$500)</f>
         <v>108</v>
       </c>
-      <c r="G17" s="15" t="n">
+      <c r="G17" s="16" t="n">
         <f aca="false">D17/F17</f>
         <v>0.277777777777778</v>
       </c>
-      <c r="H17" s="16" t="n">
+      <c r="H17" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G17, 0.25)</f>
         <v>0.25</v>
       </c>
-      <c r="I17" s="16" t="n">
+      <c r="I17" s="17" t="n">
         <f aca="false">H17 + 0.25</f>
         <v>0.5</v>
       </c>
-      <c r="J17" s="2" t="n">
+      <c r="J17" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A17) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K17" s="2" t="n">
+      <c r="K17" s="5" t="b">
         <f aca="false">C17&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L17" s="2" t="n">
+      <c r="L17" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B17), ISNUMBER(C17), B17&lt;=C17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="13" t="n">
+        <v>33</v>
+      </c>
+      <c r="B18" s="14" t="n">
         <v>46030</v>
       </c>
-      <c r="C18" s="13" t="n">
+      <c r="C18" s="14" t="n">
         <v>46054</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="E18" s="14" t="n">
+      <c r="E18" s="15" t="n">
         <f aca="false">C18 - B18 +1</f>
         <v>25</v>
       </c>
-      <c r="F18" s="14" t="n">
+      <c r="F18" s="15" t="n">
         <f aca="false">NETWORKDAYS(B18, C18, 'public holidays'!A$2:A$500)</f>
         <v>17</v>
       </c>
-      <c r="G18" s="15" t="n">
+      <c r="G18" s="16" t="n">
         <f aca="false">D18/F18</f>
         <v>1.17647058823529</v>
       </c>
-      <c r="H18" s="16" t="n">
+      <c r="H18" s="17" t="n">
         <f aca="false">_xlfn.FLOOR.MATH(G18, 0.25)</f>
         <v>1</v>
       </c>
-      <c r="I18" s="16" t="n">
+      <c r="I18" s="17" t="n">
         <f aca="false">H18 + 0.25</f>
         <v>1.25</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="J18" s="5" t="b">
         <f aca="false">COUNTIF(links!$B$1:$B$526, A18) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="K18" s="5" t="b">
         <f aca="false">C18&gt;misc!$A$2</f>
         <v>1</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="L18" s="5" t="b">
         <f aca="false">AND(ISNUMBER(B18), ISNUMBER(C18), B18&lt;=C18)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -3876,7 +4296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3891,32 +4311,32 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="5" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="5" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="4" t="b">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="7" t="b">
         <f aca="false">AND(C2:C589)</f>
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="b">
+      <c r="D1" s="7" t="b">
         <f aca="false">AND(D2:D589)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C2" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
@@ -3929,10 +4349,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
@@ -3945,10 +4365,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
@@ -3961,10 +4381,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
@@ -3977,10 +4397,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
@@ -3993,10 +4413,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
@@ -4009,10 +4429,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A8) &gt; 0</f>
@@ -4025,10 +4445,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>18</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C9" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A9) &gt; 0</f>
@@ -4041,10 +4461,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A10) &gt; 0</f>
@@ -4057,10 +4477,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>22</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A11) &gt; 0</f>
@@ -4073,10 +4493,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A12) &gt; 0</f>
@@ -4089,10 +4509,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A13) &gt; 0</f>
@@ -4105,10 +4525,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C14" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A14) &gt; 0</f>
@@ -4121,10 +4541,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A15) &gt; 0</f>
@@ -4137,10 +4557,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>26</v>
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C16" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A16) &gt; 0</f>
@@ -4153,10 +4573,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="C17" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A17) &gt; 0</f>
@@ -4169,10 +4589,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C18" s="20" t="n">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A18) &gt; 0</f>
@@ -4203,7 +4623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4218,1119 +4638,1119 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="7" style="5" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="4" t="b">
+        <v>16</v>
+      </c>
+      <c r="G1" s="7" t="b">
         <f aca="false">AND(G2:G937)</f>
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="b">
+      <c r="H1" s="7" t="b">
         <f aca="false">AND(H2:H937)</f>
         <v>1</v>
       </c>
-      <c r="I1" s="12" t="b">
+      <c r="I1" s="13" t="b">
         <f aca="false">AND(I2:I907)</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="13" t="n">
+        <v>17</v>
+      </c>
+      <c r="C2" s="14" t="n">
         <v>45684</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="14" t="n">
         <f aca="false">C2+5</f>
         <v>45689</v>
       </c>
-      <c r="E2" s="22" t="n">
+      <c r="E2" s="19" t="n">
         <v>2.25</v>
       </c>
-      <c r="F2" s="22" t="n">
+      <c r="F2" s="19" t="n">
         <v>2.5</v>
       </c>
-      <c r="G2" s="2" t="b">
+      <c r="G2" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A2) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="b">
+      <c r="H2" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B2)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="b">
+      <c r="I2" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C2), ISNUMBER(D2), C2&lt;=D2)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" s="14" t="n">
         <f aca="false">D2+1</f>
         <v>45690</v>
       </c>
-      <c r="D3" s="13" t="n">
+      <c r="D3" s="14" t="n">
         <f aca="false">C3+45</f>
         <v>45735</v>
       </c>
-      <c r="E3" s="22" t="n">
+      <c r="E3" s="19" t="n">
         <v>0.5</v>
       </c>
-      <c r="F3" s="22" t="n">
+      <c r="F3" s="19" t="n">
         <v>0.75</v>
       </c>
-      <c r="G3" s="2" t="b">
+      <c r="G3" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A3) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="b">
+      <c r="H3" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B3)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="b">
+      <c r="I3" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C3), ISNUMBER(D3), C3&lt;=D3)</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="13" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" s="14" t="n">
         <f aca="false">D3+1</f>
         <v>45736</v>
       </c>
-      <c r="D4" s="13" t="n">
+      <c r="D4" s="14" t="n">
         <v>45748</v>
       </c>
-      <c r="E4" s="22" t="n">
+      <c r="E4" s="19" t="n">
         <v>0.75</v>
       </c>
-      <c r="F4" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="b">
+      <c r="F4" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A4) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H4" s="2" t="b">
+      <c r="H4" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B4)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I4" s="2" t="b">
+      <c r="I4" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C4), ISNUMBER(D4), C4&lt;=D4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="C5" s="14" t="n">
         <v>45662</v>
       </c>
-      <c r="D5" s="13" t="n">
+      <c r="D5" s="14" t="n">
         <f aca="false">C5+10</f>
         <v>45672</v>
       </c>
-      <c r="E5" s="22" t="n">
+      <c r="E5" s="19" t="n">
         <v>3.75</v>
       </c>
-      <c r="F5" s="22" t="n">
+      <c r="F5" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="b">
+      <c r="G5" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A5) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H5" s="2" t="b">
+      <c r="H5" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B5)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I5" s="2" t="b">
+      <c r="I5" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C5), ISNUMBER(D5), C5&lt;=D5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="13" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" s="14" t="n">
         <f aca="false">D5+1</f>
         <v>45673</v>
       </c>
-      <c r="D6" s="13" t="n">
+      <c r="D6" s="14" t="n">
         <f aca="false">C6+180</f>
         <v>45853</v>
       </c>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="19" t="n">
         <v>0.25</v>
       </c>
-      <c r="F6" s="22" t="n">
+      <c r="F6" s="19" t="n">
         <v>0.5</v>
       </c>
-      <c r="G6" s="2" t="b">
+      <c r="G6" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A6) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H6" s="2" t="b">
+      <c r="H6" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B6)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I6" s="2" t="b">
+      <c r="I6" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C6), ISNUMBER(D6), C6&lt;=D6)</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="13" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14" t="n">
         <f aca="false">D6+1</f>
         <v>45854</v>
       </c>
-      <c r="D7" s="13" t="n">
+      <c r="D7" s="14" t="n">
         <v>45873</v>
       </c>
-      <c r="E7" s="22" t="n">
+      <c r="E7" s="19" t="n">
         <v>2.75</v>
       </c>
-      <c r="F7" s="22" t="n">
+      <c r="F7" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="b">
+      <c r="G7" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A7) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="b">
+      <c r="H7" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B7)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I7" s="2" t="b">
+      <c r="I7" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C7), ISNUMBER(D7), C7&lt;=D7)</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="13" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" s="14" t="n">
         <v>45658</v>
       </c>
-      <c r="D8" s="13" t="n">
+      <c r="D8" s="14" t="n">
         <v>45678</v>
       </c>
-      <c r="E8" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="22" t="n">
+      <c r="E8" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="19" t="n">
         <v>1.25</v>
       </c>
-      <c r="G8" s="2" t="b">
+      <c r="G8" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A8) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="b">
+      <c r="H8" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B8)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I8" s="2" t="b">
+      <c r="I8" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C8), ISNUMBER(D8), C8&lt;=D8)</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="13" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" s="14" t="n">
         <v>45679</v>
       </c>
-      <c r="D9" s="13" t="n">
+      <c r="D9" s="14" t="n">
         <v>45691</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="19" t="n">
         <v>0.5</v>
       </c>
-      <c r="F9" s="22" t="n">
+      <c r="F9" s="19" t="n">
         <v>0.75</v>
       </c>
-      <c r="G9" s="2" t="b">
+      <c r="G9" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A9) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H9" s="2" t="b">
+      <c r="H9" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B9)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I9" s="2" t="b">
+      <c r="I9" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C9), ISNUMBER(D9), C9&lt;=D9)</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="14" t="n">
+        <v>45809</v>
+      </c>
+      <c r="D10" s="14" t="n">
+        <v>45834</v>
+      </c>
+      <c r="E10" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>45809</v>
-      </c>
-      <c r="D10" s="13" t="n">
-        <v>45834</v>
-      </c>
-      <c r="E10" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" s="22" t="n">
+      <c r="F10" s="19" t="n">
         <v>2.25</v>
       </c>
-      <c r="G10" s="2" t="b">
+      <c r="G10" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A10) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="b">
+      <c r="H10" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B10)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I10" s="2" t="b">
+      <c r="I10" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C10), ISNUMBER(D10), C10&lt;=D10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="13" t="n">
+        <v>26</v>
+      </c>
+      <c r="C11" s="14" t="n">
         <v>45835</v>
       </c>
-      <c r="D11" s="13" t="n">
+      <c r="D11" s="14" t="n">
         <v>46335</v>
       </c>
-      <c r="E11" s="22" t="n">
+      <c r="E11" s="19" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="22" t="n">
+      <c r="F11" s="19" t="n">
         <v>0.25</v>
       </c>
-      <c r="G11" s="2" t="b">
+      <c r="G11" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A11) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H11" s="2" t="b">
+      <c r="H11" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B11)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I11" s="2" t="b">
+      <c r="I11" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C11), ISNUMBER(D11), C11&lt;=D11)</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="C12" s="14" t="n">
         <v>46336</v>
       </c>
-      <c r="D12" s="13" t="n">
+      <c r="D12" s="14" t="n">
         <v>46391</v>
       </c>
-      <c r="E12" s="22" t="n">
+      <c r="E12" s="19" t="n">
         <v>0.5</v>
       </c>
-      <c r="F12" s="22" t="n">
+      <c r="F12" s="19" t="n">
         <v>0.75</v>
       </c>
-      <c r="G12" s="2" t="b">
+      <c r="G12" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A12) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H12" s="2" t="b">
+      <c r="H12" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B12)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I12" s="2" t="b">
+      <c r="I12" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C12), ISNUMBER(D12), C12&lt;=D12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="13" t="n">
+        <v>28</v>
+      </c>
+      <c r="C13" s="14" t="n">
         <v>45778</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="14" t="n">
         <v>45793</v>
       </c>
-      <c r="E13" s="22" t="n">
+      <c r="E13" s="19" t="n">
         <v>5.25</v>
       </c>
-      <c r="F13" s="22" t="n">
+      <c r="F13" s="19" t="n">
         <v>5.5</v>
       </c>
-      <c r="G13" s="2" t="b">
+      <c r="G13" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A13) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="b">
+      <c r="H13" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B13)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I13" s="2" t="b">
+      <c r="I13" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C13), ISNUMBER(D13), C13&lt;=D13)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="13" t="n">
+        <v>29</v>
+      </c>
+      <c r="C14" s="14" t="n">
         <v>45794</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="14" t="n">
         <v>46064</v>
       </c>
-      <c r="E14" s="22" t="n">
+      <c r="E14" s="19" t="n">
         <v>0.25</v>
       </c>
-      <c r="F14" s="22" t="n">
+      <c r="F14" s="19" t="n">
         <v>0.5</v>
       </c>
-      <c r="G14" s="2" t="b">
+      <c r="G14" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A14) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H14" s="2" t="b">
+      <c r="H14" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B14)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I14" s="2" t="b">
+      <c r="I14" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C14), ISNUMBER(D14), C14&lt;=D14)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="C15" s="14" t="n">
         <v>46065</v>
       </c>
-      <c r="D15" s="13" t="n">
+      <c r="D15" s="14" t="n">
         <v>46083</v>
       </c>
-      <c r="E15" s="22" t="n">
+      <c r="E15" s="19" t="n">
         <v>1.5</v>
       </c>
-      <c r="F15" s="22" t="n">
+      <c r="F15" s="19" t="n">
         <v>1.75</v>
       </c>
-      <c r="G15" s="2" t="b">
+      <c r="G15" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A15) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H15" s="2" t="b">
+      <c r="H15" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B15)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I15" s="2" t="b">
+      <c r="I15" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C15), ISNUMBER(D15), C15&lt;=D15)</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="13" t="n">
+        <v>31</v>
+      </c>
+      <c r="C16" s="14" t="n">
         <v>45853</v>
       </c>
-      <c r="D16" s="13" t="n">
+      <c r="D16" s="14" t="n">
         <v>45878</v>
       </c>
-      <c r="E16" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="22" t="n">
+      <c r="E16" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="19" t="n">
         <v>1.25</v>
       </c>
-      <c r="G16" s="2" t="b">
+      <c r="G16" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A16) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H16" s="2" t="b">
+      <c r="H16" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B16)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I16" s="2" t="b">
+      <c r="I16" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C16), ISNUMBER(D16), C16&lt;=D16)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="13" t="n">
+        <v>32</v>
+      </c>
+      <c r="C17" s="14" t="n">
         <v>45879</v>
       </c>
-      <c r="D17" s="13" t="n">
+      <c r="D17" s="14" t="n">
         <v>46029</v>
       </c>
-      <c r="E17" s="22" t="n">
+      <c r="E17" s="19" t="n">
         <v>0.25</v>
       </c>
-      <c r="F17" s="22" t="n">
+      <c r="F17" s="19" t="n">
         <v>0.5</v>
       </c>
-      <c r="G17" s="2" t="b">
+      <c r="G17" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A17) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H17" s="2" t="b">
+      <c r="H17" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B17)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I17" s="2" t="b">
+      <c r="I17" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C17), ISNUMBER(D17), C17&lt;=D17)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="13" t="n">
+        <v>33</v>
+      </c>
+      <c r="C18" s="14" t="n">
         <v>46030</v>
       </c>
-      <c r="D18" s="13" t="n">
+      <c r="D18" s="14" t="n">
         <v>46054</v>
       </c>
-      <c r="E18" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="22" t="n">
+      <c r="E18" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19" t="n">
         <v>1.25</v>
       </c>
-      <c r="G18" s="2" t="b">
+      <c r="G18" s="5" t="b">
         <f aca="false">COUNTIF(experts!$A$2:$A$954, A18) &gt; 0</f>
         <v>1</v>
       </c>
-      <c r="H18" s="2" t="b">
+      <c r="H18" s="5" t="b">
         <f aca="false">COUNTIF(tasks!$A$2:$A$629,B18)&gt;0</f>
         <v>1</v>
       </c>
-      <c r="I18" s="2" t="b">
+      <c r="I18" s="5" t="b">
         <f aca="false">AND(ISNUMBER(C18), ISNUMBER(D18), C18&lt;=D18)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="13"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="13"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="13"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="13"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="13"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="13"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="13"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="13"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="13"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="13"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="13"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="13"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="13"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="23"/>
-      <c r="D42" s="23"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="13"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="13"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="14"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="13"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="14"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="13"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="13"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="13"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="14"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="13"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="14"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="13"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="14"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="13"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="13"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="14"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="13"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="13"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="13"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="13"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="14"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="13"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="14"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="13"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="14"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="13"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="14"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="13"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="14"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="13"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="14"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="13"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="14"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="13"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="14"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="13"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="14"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="13"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="14"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="13"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="14"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="13"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="14"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="13"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="14"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="13"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="14"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="13"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="14"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="13"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="14"/>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="13"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="14"/>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="13"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="14"/>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="13"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="14"/>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I74" s="24"/>
-      <c r="J74" s="13"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="14"/>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I75" s="24"/>
-      <c r="J75" s="13"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="14"/>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I76" s="24"/>
-      <c r="J76" s="13"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="14"/>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I77" s="24"/>
-      <c r="J77" s="13"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="14"/>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I78" s="24"/>
-      <c r="J78" s="13"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="14"/>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I79" s="24"/>
-      <c r="J79" s="13"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="14"/>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I80" s="24"/>
-      <c r="J80" s="13"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="14"/>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I81" s="24"/>
-      <c r="J81" s="13"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="14"/>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I82" s="24"/>
-      <c r="J82" s="13"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="14"/>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I83" s="24"/>
-      <c r="J83" s="13"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="14"/>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I84" s="24"/>
-      <c r="J84" s="13"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="14"/>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I85" s="24"/>
-      <c r="J85" s="13"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="14"/>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I86" s="24"/>
-      <c r="J86" s="13"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="14"/>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I87" s="24"/>
-      <c r="J87" s="13"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="14"/>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I88" s="24"/>
-      <c r="J88" s="13"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="14"/>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I89" s="24"/>
-      <c r="J89" s="13"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="14"/>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I90" s="24"/>
-      <c r="J90" s="13"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="14"/>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I91" s="24"/>
-      <c r="J91" s="13"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="14"/>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I92" s="24"/>
-      <c r="J92" s="13"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="14"/>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I93" s="24"/>
-      <c r="J93" s="13"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="14"/>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I94" s="24"/>
-      <c r="J94" s="13"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="14"/>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I95" s="24"/>
-      <c r="J95" s="13"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="14"/>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I96" s="24"/>
-      <c r="J96" s="13"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="14"/>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I97" s="24"/>
-      <c r="J97" s="13"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="14"/>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I98" s="24"/>
-      <c r="J98" s="13"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="14"/>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I99" s="24"/>
-      <c r="J99" s="13"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -5354,7 +5774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5369,33 +5789,33 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="4" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5734,465 +6154,6 @@
       <c r="E69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E70"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="6" width="11.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -6213,381 +6174,445 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="4" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>5</v>
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>15</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -6608,186 +6633,384 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="6" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="3" style="4" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -6805,353 +7028,186 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="6" width="11.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="4" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="12" t="b">
-        <f aca="false">AND(D2:D908)</f>
-        <v>1</v>
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="26" t="n">
-        <v>45637</v>
-      </c>
-      <c r="C2" s="26" t="n">
-        <v>45672</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B2), ISNUMBER(C2), B2&lt;=C2)</f>
-        <v>1</v>
-      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="26" t="n">
-        <v>45673</v>
-      </c>
-      <c r="C3" s="26" t="n">
-        <v>45701</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B3), ISNUMBER(C3), B3&lt;=C3)</f>
-        <v>1</v>
-      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="28" t="n">
-        <v>45702</v>
-      </c>
-      <c r="C4" s="28" t="n">
-        <v>45732</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B4), ISNUMBER(C4), B4&lt;=C4)</f>
-        <v>1</v>
-      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="28" t="n">
-        <v>45733</v>
-      </c>
-      <c r="C5" s="28" t="n">
-        <v>45761</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B5), ISNUMBER(C5), B5&lt;=C5)</f>
-        <v>1</v>
-      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="28" t="n">
-        <v>45762</v>
-      </c>
-      <c r="C6" s="28" t="n">
-        <v>45795</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B6), ISNUMBER(C6), B6&lt;=C6)</f>
-        <v>1</v>
-      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="28" t="n">
-        <v>45796</v>
-      </c>
-      <c r="C7" s="28" t="n">
-        <v>45826</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B7), ISNUMBER(C7), B7&lt;=C7)</f>
-        <v>1</v>
-      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="13" t="n">
-        <v>45827</v>
-      </c>
-      <c r="C8" s="28" t="n">
-        <v>45855</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B8), ISNUMBER(C8), B8&lt;=C8)</f>
-        <v>1</v>
-      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="28" t="n">
-        <v>45856</v>
-      </c>
-      <c r="C9" s="28" t="n">
-        <v>45886</v>
-      </c>
-      <c r="D9" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B9), ISNUMBER(C9), B9&lt;=C9)</f>
-        <v>1</v>
-      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="13" t="n">
-        <v>45887</v>
-      </c>
-      <c r="C10" s="13" t="n">
-        <v>45915</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B10), ISNUMBER(C10), B10&lt;=C10)</f>
-        <v>1</v>
-      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="13" t="n">
-        <v>45916</v>
-      </c>
-      <c r="C11" s="13" t="n">
-        <v>45945</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B11), ISNUMBER(C11), B11&lt;=C11)</f>
-        <v>1</v>
-      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="13" t="n">
-        <v>45946</v>
-      </c>
-      <c r="C12" s="13" t="n">
-        <v>45973</v>
-      </c>
-      <c r="D12" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B12), ISNUMBER(C12), B12&lt;=C12)</f>
-        <v>1</v>
-      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="13" t="n">
-        <v>45974</v>
-      </c>
-      <c r="C13" s="13" t="n">
-        <v>46002</v>
-      </c>
-      <c r="D13" s="2" t="b">
-        <f aca="false">AND(ISNUMBER(B13), ISNUMBER(C13), B13&lt;=C13)</f>
-        <v>1</v>
-      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7161,6 +7217,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ampl-data-input-excel/26-SA-Kevin/26-SA-Kevin.xlsx
+++ b/ampl-data-input-excel/26-SA-Kevin/26-SA-Kevin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,13 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="himg" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="timg" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="simg" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="gimg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="wimg" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="bimg" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="eimg" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1615,7 +1615,7 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -6244,7 +6244,7 @@
   </sheetPr>
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>

--- a/ampl-data-input-excel/26-SA-Kevin/26-SA-Kevin.xlsx
+++ b/ampl-data-input-excel/26-SA-Kevin/26-SA-Kevin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="16"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -262,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="86">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -408,10 +408,16 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
+    <t xml:space="preserve">With ubday</t>
+  </si>
+  <si>
     <t xml:space="preserve">Last day</t>
   </si>
   <si>
     <t xml:space="preserve">highs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">Width</t>
@@ -977,7 +983,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1031,10 +1037,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1042,8 +1048,8 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="6" width="15.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="14" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="14.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="15" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1056,8 +1062,11 @@
       <c r="C1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="8" t="s">
         <v>48</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1068,9 +1077,12 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="29" t="n">
+        <v>50</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="29" t="n">
         <f aca="false">MAX(MAX(period!C2:C900),MAX(task!C2:C604))</f>
         <v>46391</v>
       </c>
@@ -1094,7 +1106,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1109,13 +1121,13 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1124,19 +1136,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,14 +1166,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="21" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.3</v>
@@ -1171,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1194,7 +1206,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1205,16 +1217,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1223,19 +1235,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,14 +1265,14 @@
         <v>45657</v>
       </c>
       <c r="F2" s="21" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.3</v>
@@ -1270,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1293,7 +1305,7 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1304,16 +1316,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1322,13 +1334,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1346,7 +1358,7 @@
         <v>45657</v>
       </c>
       <c r="F2" s="21" t="n">
-        <f aca="false">misc!D2</f>
+        <f aca="false">misc!E2</f>
         <v>46391</v>
       </c>
       <c r="G2" s="6" t="n">
@@ -1357,7 +1369,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!D2)</f>
+        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
@@ -1383,7 +1395,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="D1:D2 H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1394,25 +1406,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1426,7 +1438,7 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F2" s="6" t="n">
         <v>0.9</v>
@@ -1454,7 +1466,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1465,25 +1477,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1497,10 +1509,10 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>4</v>
@@ -1525,7 +1537,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="D1:D2 J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1538,34 +1550,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,16 +1591,16 @@
         <v>150</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="6" t="n">
         <v>0.2</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>0.5</v>
@@ -1615,8 +1627,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1627,19 +1639,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,7 +1687,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2588,7 +2600,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2915,7 +2927,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4066,7 +4078,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4525,7 +4537,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4722,7 +4734,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5087,7 +5099,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6245,7 +6257,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="1" sqref="D1:D2 L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/26-SA-Kevin/26-SA-Kevin.xlsx
+++ b/ampl-data-input-excel/26-SA-Kevin/26-SA-Kevin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -18,13 +18,14 @@
     <sheet name="pbsum" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="holiday" sheetId="9" state="visible" r:id="rId11"/>
     <sheet name="misc" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="imgh" sheetId="11" state="visible" r:id="rId13"/>
-    <sheet name="imgt" sheetId="12" state="visible" r:id="rId14"/>
-    <sheet name="imgs" sheetId="13" state="visible" r:id="rId15"/>
-    <sheet name="imgg" sheetId="14" state="visible" r:id="rId16"/>
-    <sheet name="imgw" sheetId="15" state="visible" r:id="rId17"/>
-    <sheet name="imgb" sheetId="16" state="visible" r:id="rId18"/>
-    <sheet name="imge" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="img" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="imgh" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="imgt" sheetId="13" state="visible" r:id="rId15"/>
+    <sheet name="imgs" sheetId="14" state="visible" r:id="rId16"/>
+    <sheet name="imgg" sheetId="15" state="visible" r:id="rId17"/>
+    <sheet name="imgw" sheetId="16" state="visible" r:id="rId18"/>
+    <sheet name="imgb" sheetId="17" state="visible" r:id="rId19"/>
+    <sheet name="imge" sheetId="18" state="visible" r:id="rId20"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="87">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -420,6 +421,9 @@
     <t xml:space="preserve">No</t>
   </si>
   <si>
+    <t xml:space="preserve">For all charts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Width</t>
   </si>
   <si>
@@ -429,6 +433,12 @@
     <t xml:space="preserve">Dpi</t>
   </si>
   <si>
+    <t xml:space="preserve">Is Start OK?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is End OK?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bar:color</t>
   </si>
   <si>
@@ -436,12 +446,6 @@
   </si>
   <si>
     <t xml:space="preserve">Bar:alpha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is Start OK?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Is End OK?</t>
   </si>
   <si>
     <t xml:space="preserve">#2ca02c</t>
@@ -668,7 +672,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -790,10 +794,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -983,7 +983,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1039,8 +1039,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1103,31 +1103,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="23.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.18"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>4</v>
@@ -1135,65 +1134,47 @@
       <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="E2" s="13" t="n">
+      <c r="E2" s="21" t="n">
         <f aca="false">misc!A2+1</f>
         <v>45657</v>
       </c>
       <c r="F2" s="21" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="J2" s="31" t="b">
+        <f aca="false">E2+20</f>
+        <v>45677</v>
+      </c>
+      <c r="G2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="31" t="b">
+      <c r="H2" s="2" t="b">
         <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1203,87 +1184,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="1" sqref="D1:D2 F2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="23.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="21" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="6" t="n">
         <v>0.3</v>
-      </c>
-      <c r="J2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="K2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1302,79 +1238,42 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="1" sqref="D1:D2 F3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="n">
-        <f aca="false">misc!A2+1</f>
-        <v>45657</v>
-      </c>
-      <c r="F2" s="21" t="n">
-        <f aca="false">misc!E2</f>
-        <v>46391</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(E2), E2&gt;misc!A2)</f>
-        <v>1</v>
-      </c>
-      <c r="I2" s="31" t="b">
-        <f aca="false">AND(ISNUMBER(F2), E2&lt;=F2, F2&lt;=misc!E2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="M21" s="1"/>
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1392,16 +1291,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="1" sqref="D1:D2 H16"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,43 +1308,16 @@
         <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G2" s="6" t="n">
         <v>0.6</v>
       </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1463,59 +1335,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
       <c r="C2" s="6" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>4</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -1534,79 +1388,41 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J30" activeCellId="1" sqref="D1:D2 J30"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
+      <c r="D2" s="6" t="n">
         <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I2" s="6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J2" s="6" t="n">
-        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1625,46 +1441,101 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D1:D2 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="21.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="6" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="n">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" s="6" t="n">
-        <v>150</v>
-      </c>
-      <c r="E2" s="6" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -1687,7 +1558,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2600,7 +2471,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2927,7 +2798,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4078,7 +3949,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4537,7 +4408,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4734,7 +4605,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5099,7 +4970,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6257,7 +6128,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="1" sqref="D1:D2 L34"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ampl-data-input-excel/26-SA-Kevin/26-SA-Kevin.xlsx
+++ b/ampl-data-input-excel/26-SA-Kevin/26-SA-Kevin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="17"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="expert" sheetId="1" state="visible" r:id="rId3"/>
@@ -409,7 +409,7 @@
     <t xml:space="preserve">Solver</t>
   </si>
   <si>
-    <t xml:space="preserve">With ubday</t>
+    <t xml:space="preserve">AMPL model</t>
   </si>
   <si>
     <t xml:space="preserve">Last day</t>
@@ -418,7 +418,7 @@
     <t xml:space="preserve">highs</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">solid</t>
   </si>
   <si>
     <t xml:space="preserve">For all charts</t>
@@ -983,7 +983,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1039,8 +1039,8 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1106,7 +1106,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="1" sqref="D1:D2 H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1187,7 +1187,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="1" sqref="D1:D2 E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1294,7 +1294,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="D1:D2 C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1338,7 +1338,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1444,7 +1444,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1516,8 +1516,8 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="1" sqref="D1:D2 B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1558,7 +1558,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2471,7 +2471,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2798,7 +2798,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3949,7 +3949,7 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4408,7 +4408,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="1" sqref="D1:D2 F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4605,7 +4605,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4970,7 +4970,7 @@
   <dimension ref="A1:F181"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D1:D2 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6128,7 +6128,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L34" activeCellId="0" sqref="L34"/>
+      <selection pane="topLeft" activeCell="L34" activeCellId="1" sqref="D1:D2 L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
